--- a/biology/Botanique/Flagellariaceae/Flagellariaceae.xlsx
+++ b/biology/Botanique/Flagellariaceae/Flagellariaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Flagellariacées sont une famille de plantes monocotylédones. Elle comprend de 1 à 4 espèces du genre Flagellaria.
 Ce sont des lianes pérennes des zones subtropicales à tropicales d'Afrique, de l'Asie du Sud-Est et du nord-est de l'Australie.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Flagellaria, du latin flagell (fouet), donné en raison des feuilles qui ont une pointe flagelliforme, c'est-à-dire en forme de fouet ou de vrille[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Flagellaria, du latin flagell (fouet), donné en raison des feuilles qui ont une pointe flagelliforme, c'est-à-dire en forme de fouet ou de vrille.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2] cette famille était dans l'ordres des Restionales.
-La classification phylogénétique APG II (2003)[3] et la classification phylogénétique APG III (2009)[4] situent maintenant cette famille dans l'ordre des Poales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) cette famille était dans l'ordres des Restionales.
+La classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) situent maintenant cette famille dans l'ordre des Poales.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 avr. 2010)[5], Angiosperm Phylogeny Website                        (18 mai 2010)[6], NCBI  (20 avr. 2010)[7] et DELTA Angio           (20 avr. 2010)[8] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 avr. 2010), Angiosperm Phylogeny Website                        (18 mai 2010), NCBI  (20 avr. 2010) et DELTA Angio           (20 avr. 2010) :
 genre Flagellaria  L. (1753)</t>
         </is>
       </c>
@@ -606,15 +624,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 avr. 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 avr. 2010) :
 genre Flagellaria  L. (1753)
 Flagellaria gigantea  Hook.f. (1883)
 Flagellaria guineensis  Schumach. (1827)
 Flagellaria indica (en)  L. (1753)
 Flagellaria neocaledonica  Schltr. (1906)
-Selon NCBI  (20 avr. 2010)[7] :
+Selon NCBI  (20 avr. 2010) :
 genre Flagellaria
 Flagellaria indica (en)</t>
         </is>
